--- a/teaching/traditional_assets/database/data/bahrain/bahrain_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/bahrain/bahrain_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0636</v>
+        <v>0.0152</v>
       </c>
       <c r="E2">
-        <v>0.066</v>
+        <v>0.0205</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,91 +603,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.000744610431656701</v>
+        <v>0.0007089923095127616</v>
       </c>
       <c r="J2">
-        <v>0.000647125766375445</v>
+        <v>0.0006129804044971534</v>
       </c>
       <c r="K2">
-        <v>1475.4</v>
+        <v>983</v>
       </c>
       <c r="L2">
-        <v>0.3880487099234634</v>
+        <v>0.2966383004405818</v>
       </c>
       <c r="M2">
-        <v>882.6</v>
+        <v>869.74</v>
       </c>
       <c r="N2">
-        <v>0.05318180996511186</v>
+        <v>0.06271786551288985</v>
       </c>
       <c r="O2">
-        <v>0.5982106547376982</v>
+        <v>0.8847812817904375</v>
       </c>
       <c r="P2">
-        <v>858.4</v>
+        <v>861.85</v>
       </c>
       <c r="Q2">
-        <v>0.05172361848408341</v>
+        <v>0.06214890932035334</v>
       </c>
       <c r="R2">
-        <v>0.5818083231665988</v>
+        <v>0.8767548321464903</v>
       </c>
       <c r="S2">
-        <v>24.19999999999999</v>
+        <v>7.890000000000001</v>
       </c>
       <c r="T2">
-        <v>0.02741898934964875</v>
+        <v>0.009071676593004807</v>
       </c>
       <c r="U2">
-        <v>10385.5</v>
+        <v>11599.5</v>
       </c>
       <c r="V2">
-        <v>0.6257870919926005</v>
+        <v>0.8364521362898865</v>
       </c>
       <c r="W2">
-        <v>0.07593930157047246</v>
+        <v>0.05904230590423059</v>
       </c>
       <c r="X2">
-        <v>0.1274393480223414</v>
+        <v>0.1754808709715353</v>
       </c>
       <c r="Y2">
-        <v>-0.05150004645186898</v>
+        <v>-0.1164385650673047</v>
       </c>
       <c r="Z2">
-        <v>0.2790430818294983</v>
+        <v>0.235923933169103</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.09521030846175307</v>
+        <v>0.09903501865467192</v>
       </c>
       <c r="AC2">
-        <v>-0.09326800608506118</v>
+        <v>-0.09717649420321536</v>
       </c>
       <c r="AD2">
-        <v>10780.1</v>
+        <v>12414.7</v>
       </c>
       <c r="AE2">
-        <v>22.29458338899028</v>
+        <v>4.652706423683052</v>
       </c>
       <c r="AF2">
-        <v>10802.39458338899</v>
+        <v>12419.35270642368</v>
       </c>
       <c r="AG2">
-        <v>416.8945833889902</v>
+        <v>819.8527064236823</v>
       </c>
       <c r="AH2">
-        <v>0.3942725176018165</v>
+        <v>0.4724549129226406</v>
       </c>
       <c r="AI2">
-        <v>0.4078315271583368</v>
+        <v>0.4553457884388581</v>
       </c>
       <c r="AJ2">
-        <v>0.02450476794659234</v>
+        <v>0.05582031852922755</v>
       </c>
       <c r="AK2">
-        <v>0.02589102675029722</v>
+        <v>0.05230302709525846</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1478.751714677641</v>
+        <v>3784.969512195122</v>
       </c>
       <c r="AP2">
-        <v>57.18718565006724</v>
+        <v>249.9550934218544</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0673</v>
+        <v>0.08779999999999999</v>
       </c>
       <c r="E3">
-        <v>0.0585</v>
+        <v>0.0233</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>188.3</v>
+        <v>162.5</v>
       </c>
       <c r="L3">
-        <v>0.6206328279499012</v>
+        <v>0.4787860931054803</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>104.2</v>
       </c>
       <c r="N3">
-        <v>0.03144545423131414</v>
+        <v>0.03665658200239218</v>
       </c>
       <c r="O3">
-        <v>0.483271375464684</v>
+        <v>0.6412307692307693</v>
       </c>
       <c r="P3">
-        <v>91</v>
+        <v>104.2</v>
       </c>
       <c r="Q3">
-        <v>0.03144545423131414</v>
+        <v>0.03665658200239218</v>
       </c>
       <c r="R3">
-        <v>0.483271375464684</v>
+        <v>0.6412307692307693</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1184.6</v>
+        <v>806.6</v>
       </c>
       <c r="V3">
-        <v>0.4093437921144476</v>
+        <v>0.2837543094350243</v>
       </c>
       <c r="W3">
-        <v>0.1525561046747144</v>
+        <v>0.1212596074919782</v>
       </c>
       <c r="X3">
-        <v>0.06734615746584244</v>
+        <v>0.06166594643724242</v>
       </c>
       <c r="Y3">
-        <v>0.08520994720887198</v>
+        <v>0.05959366105473579</v>
       </c>
       <c r="Z3">
-        <v>0.2764212827988338</v>
+        <v>0.6470924690181125</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06812255188940003</v>
+        <v>0.062160213692181</v>
       </c>
       <c r="AC3">
-        <v>-0.06812255188940003</v>
+        <v>-0.062160213692181</v>
       </c>
       <c r="AD3">
-        <v>369</v>
+        <v>247.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>369</v>
+        <v>247.7</v>
       </c>
       <c r="AG3">
-        <v>-815.5999999999999</v>
+        <v>-558.9000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.1130895828863894</v>
+        <v>0.08015403035304017</v>
       </c>
       <c r="AI3">
-        <v>0.2159031068983676</v>
+        <v>0.1580324103611075</v>
       </c>
       <c r="AJ3">
-        <v>-0.3924361256796419</v>
+        <v>-0.2447344222095723</v>
       </c>
       <c r="AK3">
-        <v>-1.555004766444232</v>
+        <v>-0.7346214511041012</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0636</v>
+        <v>0.0152</v>
       </c>
       <c r="E4">
-        <v>0.0992</v>
+        <v>0.0205</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,34 +853,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0008073321162175251</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0007688224036706763</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>727.7</v>
+        <v>581.4</v>
       </c>
       <c r="L4">
-        <v>0.6277605244996549</v>
+        <v>0.5777027027027027</v>
       </c>
       <c r="M4">
-        <v>425.6</v>
+        <v>469.3</v>
       </c>
       <c r="N4">
-        <v>0.04632028035959165</v>
+        <v>0.06397742454399215</v>
       </c>
       <c r="O4">
-        <v>0.5848563968668408</v>
+        <v>0.8071895424836601</v>
       </c>
       <c r="P4">
-        <v>425.6</v>
+        <v>469.3</v>
       </c>
       <c r="Q4">
-        <v>0.04632028035959165</v>
+        <v>0.06397742454399215</v>
       </c>
       <c r="R4">
-        <v>0.5848563968668408</v>
+        <v>0.8071895424836601</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -889,67 +889,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>3616.8</v>
+        <v>4036.1</v>
       </c>
       <c r="V4">
-        <v>0.3936353148603643</v>
+        <v>0.5502222101044252</v>
       </c>
       <c r="W4">
-        <v>0.16549544017648</v>
+        <v>0.1244807947587034</v>
       </c>
       <c r="X4">
-        <v>0.07313862878300617</v>
+        <v>0.08261866561845702</v>
       </c>
       <c r="Y4">
-        <v>0.09235681139347379</v>
+        <v>0.04186212914024635</v>
       </c>
       <c r="Z4">
-        <v>0.4753799168257374</v>
+        <v>0.2902546650131226</v>
       </c>
       <c r="AA4">
-        <v>0.0003654827303107296</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07473714791108314</v>
+        <v>0.08001437405973502</v>
       </c>
       <c r="AC4">
-        <v>-0.07437166518077241</v>
+        <v>-0.08001437405973502</v>
       </c>
       <c r="AD4">
-        <v>2413.5</v>
+        <v>3830</v>
       </c>
       <c r="AE4">
-        <v>4.470703054403224</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2417.970703054403</v>
+        <v>3830</v>
       </c>
       <c r="AG4">
-        <v>-1198.829296945597</v>
+        <v>-206.0999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.2083349250083031</v>
+        <v>0.3430239848102173</v>
       </c>
       <c r="AI4">
-        <v>0.3192938051984898</v>
+        <v>0.4303080691189358</v>
       </c>
       <c r="AJ4">
-        <v>-0.1500530318974027</v>
+        <v>-0.02890886903342543</v>
       </c>
       <c r="AK4">
-        <v>-0.3030353567796463</v>
+        <v>-0.04236817761332098</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>1318.852459016393</v>
-      </c>
-      <c r="AP4">
-        <v>-655.0979764730038</v>
       </c>
     </row>
     <row r="5">
@@ -960,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BBK B.S.C. (BAX:BBK)</t>
+          <t>Bank of Bahrain and Kuwait B.S.C. (BAX:BBK)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -969,10 +963,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0538</v>
+        <v>0.0363</v>
       </c>
       <c r="E5">
-        <v>0.0919</v>
+        <v>0.0211</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -981,103 +975,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.0004030631194820619</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.0004026976214392067</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>196.8</v>
+        <v>156.2</v>
       </c>
       <c r="L5">
-        <v>0.5786533372537489</v>
+        <v>0.4979279566464775</v>
       </c>
       <c r="M5">
-        <v>179.7</v>
+        <v>103.9</v>
       </c>
       <c r="N5">
-        <v>0.09161356105021666</v>
+        <v>0.05746681415929204</v>
       </c>
       <c r="O5">
-        <v>0.9131097560975608</v>
+        <v>0.6651728553137005</v>
       </c>
       <c r="P5">
-        <v>167</v>
+        <v>103.9</v>
       </c>
       <c r="Q5">
-        <v>0.08513892429263319</v>
+        <v>0.05746681415929204</v>
       </c>
       <c r="R5">
-        <v>0.8485772357723577</v>
+        <v>0.6651728553137005</v>
       </c>
       <c r="S5">
-        <v>12.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.07067334446299382</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>606.2</v>
+        <v>1273.8</v>
       </c>
       <c r="V5">
-        <v>0.3090491970430793</v>
+        <v>0.7045353982300885</v>
       </c>
       <c r="W5">
-        <v>0.1488203266787659</v>
+        <v>0.1183243693659571</v>
       </c>
       <c r="X5">
-        <v>0.09286410025799161</v>
+        <v>0.09915522861257915</v>
       </c>
       <c r="Y5">
-        <v>0.05595622642077427</v>
+        <v>0.01916914075337797</v>
       </c>
       <c r="Z5">
-        <v>0.1982991623904504</v>
+        <v>0.1476165827490471</v>
       </c>
       <c r="AA5">
-        <v>-7.985460102802135e-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.08502395318660053</v>
+        <v>0.08462360483867029</v>
       </c>
       <c r="AC5">
-        <v>-0.08510380778762855</v>
+        <v>-0.08462360483867029</v>
       </c>
       <c r="AD5">
-        <v>1411.2</v>
+        <v>1564.7</v>
       </c>
       <c r="AE5">
-        <v>11.08540883467925</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1422.285408834679</v>
+        <v>1564.7</v>
       </c>
       <c r="AG5">
-        <v>816.0854088346794</v>
+        <v>290.9000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.4203237608156988</v>
+        <v>0.4639309751830878</v>
       </c>
       <c r="AI5">
-        <v>0.5171786317128814</v>
+        <v>0.5632266657067779</v>
       </c>
       <c r="AJ5">
-        <v>0.2938110944271786</v>
+        <v>0.1385964076420983</v>
       </c>
       <c r="AK5">
-        <v>0.3806571962623073</v>
+        <v>0.1933789802565978</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>678.4615384615385</v>
-      </c>
-      <c r="AP5">
-        <v>392.348754247442</v>
       </c>
     </row>
     <row r="6">
@@ -1097,10 +1085,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.07429999999999999</v>
+        <v>-0.0213</v>
       </c>
       <c r="E6">
-        <v>0.0735</v>
+        <v>-0.0678</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1109,91 +1097,91 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01427180969114071</v>
+        <v>0.02272203786521653</v>
       </c>
       <c r="J6">
-        <v>0.01427180969114071</v>
+        <v>0.02272203786521653</v>
       </c>
       <c r="K6">
-        <v>58.7</v>
+        <v>31.7</v>
       </c>
       <c r="L6">
-        <v>0.4122191011235955</v>
+        <v>0.3065764023210831</v>
       </c>
       <c r="M6">
-        <v>20.5</v>
+        <v>42.09</v>
       </c>
       <c r="N6">
-        <v>0.03587051618547681</v>
+        <v>0.09770194986072424</v>
       </c>
       <c r="O6">
-        <v>0.3492333901192504</v>
+        <v>1.327760252365931</v>
       </c>
       <c r="P6">
-        <v>13</v>
+        <v>35.2</v>
       </c>
       <c r="Q6">
-        <v>0.02274715660542432</v>
+        <v>0.08170844939647169</v>
       </c>
       <c r="R6">
-        <v>0.2214650766609881</v>
+        <v>1.110410094637224</v>
       </c>
       <c r="S6">
-        <v>7.5</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="T6">
-        <v>0.3658536585365854</v>
+        <v>0.1636968401045379</v>
       </c>
       <c r="U6">
-        <v>371.8</v>
+        <v>529.1</v>
       </c>
       <c r="V6">
-        <v>0.6505686789151356</v>
+        <v>1.228180129990715</v>
       </c>
       <c r="W6">
-        <v>0.07336582927134108</v>
+        <v>0.03820197637985057</v>
       </c>
       <c r="X6">
-        <v>0.1274393480223414</v>
+        <v>0.1754808709715353</v>
       </c>
       <c r="Y6">
-        <v>-0.05407351875100036</v>
+        <v>-0.1372788945916847</v>
       </c>
       <c r="Z6">
-        <v>0.1360936292401369</v>
+        <v>0.0817939157781982</v>
       </c>
       <c r="AA6">
-        <v>0.001942302376691897</v>
+        <v>0.001858524451456551</v>
       </c>
       <c r="AB6">
-        <v>0.09521030846175307</v>
+        <v>0.09903501865467192</v>
       </c>
       <c r="AC6">
-        <v>-0.09326800608506118</v>
+        <v>-0.09717649420321536</v>
       </c>
       <c r="AD6">
-        <v>870.4</v>
+        <v>1050.8</v>
       </c>
       <c r="AE6">
-        <v>6.738471499907813</v>
+        <v>4.652706423683052</v>
       </c>
       <c r="AF6">
-        <v>877.1384714999078</v>
+        <v>1055.452706423683</v>
       </c>
       <c r="AG6">
-        <v>505.3384714999078</v>
+        <v>526.3527064236829</v>
       </c>
       <c r="AH6">
-        <v>0.6054916314570372</v>
+        <v>0.7101435051131926</v>
       </c>
       <c r="AI6">
-        <v>0.5134153123640632</v>
+        <v>0.5769226516311216</v>
       </c>
       <c r="AJ6">
-        <v>0.4692797340310766</v>
+        <v>0.5499150792670833</v>
       </c>
       <c r="AK6">
-        <v>0.3780666816606308</v>
+        <v>0.4047768761686923</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1202,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>257.5147928994083</v>
+        <v>320.3658536585366</v>
       </c>
       <c r="AP6">
-        <v>149.5084235206828</v>
+        <v>160.4733861047814</v>
       </c>
     </row>
     <row r="7">
@@ -1225,10 +1213,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0107</v>
-      </c>
-      <c r="E7">
-        <v>-0.0459</v>
+        <v>-0.1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1243,85 +1228,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>204</v>
+        <v>-23</v>
       </c>
       <c r="L7">
-        <v>0.2566037735849057</v>
+        <v>-0.05897435897435897</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="N7">
-        <v>0.06676302567279234</v>
+        <v>0.1010770059235326</v>
       </c>
       <c r="O7">
-        <v>0.4754901960784313</v>
+        <v>-4.080434782608696</v>
       </c>
       <c r="P7">
-        <v>93</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.06400991121205864</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R7">
-        <v>0.4558823529411765</v>
+        <v>-4.03695652173913</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.04123711340206185</v>
+        <v>0.0106553010122536</v>
       </c>
       <c r="U7">
-        <v>1201</v>
+        <v>1527</v>
       </c>
       <c r="V7">
-        <v>0.8266226168352949</v>
+        <v>1.644588045234249</v>
       </c>
       <c r="W7">
-        <v>0.05327761817706973</v>
+        <v>-0.005830164765525983</v>
       </c>
       <c r="X7">
-        <v>0.1489557269172809</v>
+        <v>0.2084332142559948</v>
       </c>
       <c r="Y7">
-        <v>-0.09567810874021114</v>
+        <v>-0.2142633790215207</v>
       </c>
       <c r="Z7">
-        <v>0.1498021481062747</v>
+        <v>0.0683491062039958</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.1061890701973008</v>
+        <v>0.1103333503054765</v>
       </c>
       <c r="AC7">
-        <v>-0.1061890701973008</v>
+        <v>-0.1103333503054765</v>
       </c>
       <c r="AD7">
-        <v>2962</v>
+        <v>2910</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>2962</v>
+        <v>2910</v>
       </c>
       <c r="AG7">
-        <v>1761</v>
+        <v>1383</v>
       </c>
       <c r="AH7">
-        <v>0.6709098733833156</v>
+        <v>0.7581086361860102</v>
       </c>
       <c r="AI7">
-        <v>0.402938375731193</v>
+        <v>0.4194896929508433</v>
       </c>
       <c r="AJ7">
-        <v>0.5479324185568935</v>
+        <v>0.5983127839065542</v>
       </c>
       <c r="AK7">
-        <v>0.2863414634146341</v>
+        <v>0.255637707948244</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1338,7 +1323,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Al Baraka Banking Group B.S.C. (BAX:BARKA)</t>
+          <t>Ithmaar Holding B.S.C. (BAX:ITHMR)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1347,10 +1332,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0238</v>
-      </c>
-      <c r="E8">
-        <v>-0.0493</v>
+        <v>0.0761</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1365,85 +1347,82 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>114.6</v>
+        <v>-14.7</v>
       </c>
       <c r="L8">
-        <v>0.1472439933187717</v>
+        <v>-0.0499320652173913</v>
       </c>
       <c r="M8">
-        <v>68.8</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.1799163179916318</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.6003490401396161</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>68.8</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.1799163179916318</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.6003490401396161</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>2639.3</v>
+        <v>840.2</v>
       </c>
       <c r="V8">
-        <v>6.901935146443516</v>
+        <v>4.124693176239568</v>
       </c>
       <c r="W8">
-        <v>0.07593930157047246</v>
+        <v>-0.1408045977011494</v>
       </c>
       <c r="X8">
-        <v>0.2282288101652155</v>
+        <v>0.3538580462475884</v>
       </c>
       <c r="Y8">
-        <v>-0.1522895085947431</v>
+        <v>-0.4946626439487378</v>
       </c>
       <c r="Z8">
-        <v>0.585099984964667</v>
+        <v>0.4881445863040954</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.1176105398909963</v>
+        <v>0.1170912663141947</v>
       </c>
       <c r="AC8">
-        <v>-0.1176105398909963</v>
+        <v>-0.1170912663141947</v>
       </c>
       <c r="AD8">
-        <v>1489.5</v>
+        <v>1253.4</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1489.5</v>
+        <v>1253.4</v>
       </c>
       <c r="AG8">
-        <v>-1149.8</v>
+        <v>413.2</v>
       </c>
       <c r="AH8">
-        <v>0.7957155830973877</v>
+        <v>0.8602017706403129</v>
       </c>
       <c r="AI8">
-        <v>0.402089407191448</v>
+        <v>0.8103180760279286</v>
       </c>
       <c r="AJ8">
-        <v>1.498305968204326</v>
+        <v>0.6698006159831414</v>
       </c>
       <c r="AK8">
-        <v>-1.079523049478923</v>
+        <v>0.5847721483158789</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1460,7 +1439,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ithmaar Holding B.S.C. (BAX:ITHMR)</t>
+          <t>Al Baraka Banking Group B.S.C. (BAX:BARKA)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1469,7 +1448,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.233</v>
+        <v>-0.0173</v>
+      </c>
+      <c r="E9">
+        <v>-0.108</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1484,82 +1466,85 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-14.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="L9">
-        <v>-0.05181529784984138</v>
+        <v>0.102596653202539</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>56.4</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.1770800627943485</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.6344206974128234</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>56.4</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.1770800627943485</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.6344206974128234</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>765.8</v>
+        <v>2586.7</v>
       </c>
       <c r="V9">
-        <v>5.263230240549828</v>
+        <v>8.121507064364206</v>
       </c>
       <c r="W9">
-        <v>-0.07848371596369461</v>
+        <v>0.05904230590423059</v>
       </c>
       <c r="X9">
-        <v>0.4330066895301136</v>
+        <v>0.2931091168747396</v>
       </c>
       <c r="Y9">
-        <v>-0.5114904054938082</v>
+        <v>-0.234066810970509</v>
       </c>
       <c r="Z9">
-        <v>0.4106832657788072</v>
+        <v>2.434672660859794</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.1200247992883536</v>
+        <v>0.126107297243868</v>
       </c>
       <c r="AC9">
-        <v>-0.1200247992883536</v>
+        <v>-0.126107297243868</v>
       </c>
       <c r="AD9">
-        <v>1264.5</v>
+        <v>1558.1</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1264.5</v>
+        <v>1558.1</v>
       </c>
       <c r="AG9">
-        <v>498.7</v>
+        <v>-1028.6</v>
       </c>
       <c r="AH9">
-        <v>0.8968085106382979</v>
+        <v>0.8302781626345518</v>
       </c>
       <c r="AI9">
-        <v>0.7475613360922259</v>
+        <v>0.4193852282515073</v>
       </c>
       <c r="AJ9">
-        <v>0.7741384663148091</v>
+        <v>1.44852837628503</v>
       </c>
       <c r="AK9">
-        <v>0.5387274494976775</v>
+        <v>-0.9114754098360655</v>
       </c>
       <c r="AL9">
         <v>0</v>
